--- a/BalanceSheet/MCHP_bal.xlsx
+++ b/BalanceSheet/MCHP_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-3900000.0</v>
+        <v>666000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-3500000.0</v>
+        <v>661000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>24900000.0</v>
+        <v>657000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>23200000.0</v>
+        <v>686000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>25800000.0</v>
+        <v>709000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>734200000.0</v>
@@ -1986,19 +1986,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>41200000.0</v>
+        <v>260000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>12000000.0</v>
+        <v>217000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>-46600000.0</v>
+        <v>211000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>64700000.0</v>
+        <v>247000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>-44900000.0</v>
+        <v>209000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>235600000.0</v>
@@ -2988,19 +2988,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-34800000.0</v>
+        <v>-1619000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>1300000.0</v>
+        <v>-1553000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>-49400000.0</v>
+        <v>-1527000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-86100000.0</v>
+        <v>-1430000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>-293300000.0</v>
+        <v>-1352000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>577900000.0</v>
